--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\003BF8744\IdeaProjects\apiRelatime\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18851CA1-2194-49AE-81FB-7D1DF174D66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE0E17F-95EF-4281-8969-DCABD90D521C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,7 +140,7 @@
     <t>test10@mailinator.com</t>
   </si>
   <si>
-    <t>cus_OehjJmR5GBWHrF</t>
+    <t>cus_RPYJT4w1QMVTp0</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\003BF8744\IdeaProjects\apiRelatime\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE0E17F-95EF-4281-8969-DCABD90D521C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C03CCA-2697-453A-8EFA-4545D92EF2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,7 +140,7 @@
     <t>test10@mailinator.com</t>
   </si>
   <si>
-    <t>cus_RPYJT4w1QMVTp0</t>
+    <t>cus_RPmLytin1swjzF</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\003BF8744\IdeaProjects\apiRelatime\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C03CCA-2697-453A-8EFA-4545D92EF2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18507EFB-2573-47D5-9DEF-E6991D0858D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>email</t>
   </si>
@@ -141,13 +141,43 @@
   </si>
   <si>
     <t>cus_RPmLytin1swjzF</t>
+  </si>
+  <si>
+    <t>createOrder</t>
+  </si>
+  <si>
+    <t>reference_id</t>
+  </si>
+  <si>
+    <t>currency_code</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>d9f80740-38f0-11e8-b467-0ed5f89f718b</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>d9f80740-38f0-11e8-b467-0ed5f89f718c</t>
+  </si>
+  <si>
+    <t>getOrder</t>
+  </si>
+  <si>
+    <t>2M5800732S127222M</t>
+  </si>
+  <si>
+    <t>1RK85159D4602872K</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +198,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF56A8F5"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -191,11 +227,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -478,25 +517,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.7265625" customWidth="1"/>
     <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -507,7 +546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -518,7 +557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -529,7 +568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -540,12 +579,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -556,7 +595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -567,7 +606,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -578,7 +617,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -589,19 +628,77 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -627,14 +724,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="19.54296875" customWidth="1"/>
     <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -645,7 +742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -656,7 +753,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -684,14 +781,14 @@
       <selection activeCell="C11" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -702,7 +799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -713,7 +810,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
